--- a/Team-Data/2013-14/4-8-2013-14.xlsx
+++ b/Team-Data/2013-14/4-8-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
         <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.442</v>
+        <v>0.447</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J2" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L2" t="n">
         <v>9.5</v>
       </c>
       <c r="M2" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O2" t="n">
         <v>16.9</v>
@@ -705,19 +772,19 @@
         <v>21.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R2" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
         <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="U2" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="V2" t="n">
         <v>15.4</v>
@@ -726,7 +793,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y2" t="n">
         <v>4.4</v>
@@ -741,10 +808,10 @@
         <v>101.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>1</v>
@@ -774,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
         <v>20</v>
@@ -801,7 +868,7 @@
         <v>26</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>26</v>
@@ -813,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-4.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
         <v>27</v>
@@ -977,10 +1044,10 @@
         <v>16</v>
       </c>
       <c r="AU3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="n">
         <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.553</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,10 +1115,10 @@
         <v>35.9</v>
       </c>
       <c r="J4" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L4" t="n">
         <v>8.6</v>
@@ -1063,13 +1130,13 @@
         <v>0.37</v>
       </c>
       <c r="O4" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P4" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R4" t="n">
         <v>8.699999999999999</v>
@@ -1081,7 +1148,7 @@
         <v>38.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V4" t="n">
         <v>14.3</v>
@@ -1096,19 +1163,19 @@
         <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA4" t="n">
         <v>20.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1141,13 +1208,13 @@
         <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
         <v>29</v>
@@ -1159,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
@@ -1168,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
@@ -1177,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1326,7 +1393,7 @@
         <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1490,7 +1557,7 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
         <v>30</v>
@@ -1502,7 +1569,7 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1705,7 +1772,7 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" t="n">
         <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.608</v>
+        <v>0.603</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
@@ -1776,10 +1843,10 @@
         <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L8" t="n">
         <v>8.800000000000001</v>
@@ -1791,28 +1858,28 @@
         <v>0.385</v>
       </c>
       <c r="O8" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P8" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.795</v>
+        <v>0.796</v>
       </c>
       <c r="R8" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S8" t="n">
         <v>30.7</v>
       </c>
       <c r="T8" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U8" t="n">
         <v>23.7</v>
       </c>
       <c r="V8" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W8" t="n">
         <v>8.6</v>
@@ -1824,22 +1891,22 @@
         <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA8" t="n">
         <v>20</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.9</v>
+        <v>105.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1854,10 +1921,10 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1869,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1881,16 +1948,16 @@
         <v>22</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
       </c>
       <c r="AV8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
@@ -1899,13 +1966,13 @@
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
         <v>10</v>
       </c>
       <c r="BA8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2030,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2066,7 +2133,7 @@
         <v>8</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
         <v>49</v>
       </c>
       <c r="G10" t="n">
-        <v>0.372</v>
+        <v>0.364</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2143,7 +2210,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L10" t="n">
         <v>6.2</v>
@@ -2152,7 +2219,7 @@
         <v>19.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.321</v>
+        <v>0.32</v>
       </c>
       <c r="O10" t="n">
         <v>17</v>
@@ -2161,22 +2228,22 @@
         <v>25.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.672</v>
+        <v>0.671</v>
       </c>
       <c r="R10" t="n">
         <v>14.4</v>
       </c>
       <c r="S10" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T10" t="n">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
       <c r="U10" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V10" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -2197,10 +2264,10 @@
         <v>100.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,16 +2279,16 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
@@ -2248,7 +2315,7 @@
         <v>21</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU10" t="n">
         <v>21</v>
@@ -2269,7 +2336,7 @@
         <v>12</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,13 +2461,13 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>3</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>9</v>
@@ -2430,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW11" t="n">
         <v>14</v>
@@ -2457,7 +2524,7 @@
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" t="n">
         <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.675</v>
+        <v>0.671</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="J12" t="n">
-        <v>80.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L12" t="n">
         <v>9.4</v>
@@ -2516,13 +2583,13 @@
         <v>26.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O12" t="n">
         <v>22</v>
       </c>
       <c r="P12" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="Q12" t="n">
         <v>0.707</v>
@@ -2531,13 +2598,13 @@
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T12" t="n">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
       <c r="U12" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V12" t="n">
         <v>16.3</v>
@@ -2546,7 +2613,7 @@
         <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y12" t="n">
         <v>5.5</v>
@@ -2555,16 +2622,16 @@
         <v>20.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>107.6</v>
+        <v>107.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2582,10 +2649,10 @@
         <v>14</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2609,13 +2676,13 @@
         <v>15</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2639,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>4</v>
@@ -2758,13 +2825,13 @@
         <v>5</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
         <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>20</v>
@@ -2779,7 +2846,7 @@
         <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>7.1</v>
       </c>
       <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
         <v>2</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2952,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" t="n">
-        <v>0.321</v>
+        <v>0.325</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J15" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K15" t="n">
         <v>0.449</v>
       </c>
       <c r="L15" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O15" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P15" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R15" t="n">
         <v>9.199999999999999</v>
@@ -3080,10 +3147,10 @@
         <v>31.9</v>
       </c>
       <c r="T15" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U15" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="V15" t="n">
         <v>15.2</v>
@@ -3095,7 +3162,7 @@
         <v>5.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
         <v>20.1</v>
@@ -3104,13 +3171,13 @@
         <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.9</v>
+        <v>102.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3131,10 +3198,10 @@
         <v>6</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
@@ -3143,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
@@ -3152,19 +3219,19 @@
         <v>18</v>
       </c>
       <c r="AR15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS15" t="n">
         <v>15</v>
       </c>
       <c r="AT15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU15" t="n">
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
         <v>20</v>
@@ -3182,7 +3249,7 @@
         <v>27</v>
       </c>
       <c r="BB15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3337,7 +3404,7 @@
         <v>13</v>
       </c>
       <c r="AS16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>21</v>
@@ -3346,13 +3413,13 @@
         <v>15</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" t="n">
         <v>13</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -3396,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" t="n">
         <v>53</v>
       </c>
       <c r="F17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.697</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J17" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.503</v>
+        <v>0.504</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q17" t="n">
         <v>0.76</v>
@@ -3459,28 +3526,28 @@
         <v>4.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Z17" t="n">
         <v>19.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.8</v>
+        <v>103</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
       </c>
       <c r="AF17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG17" t="n">
         <v>4</v>
@@ -3489,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3534,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,10 +3610,10 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
         <v>28</v>
@@ -3683,7 +3750,7 @@
         <v>22</v>
       </c>
       <c r="AM18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN18" t="n">
         <v>22</v>
@@ -3704,7 +3771,7 @@
         <v>30</v>
       </c>
       <c r="AT18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU18" t="n">
         <v>16</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" t="n">
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
@@ -3778,7 +3845,7 @@
         <v>38.9</v>
       </c>
       <c r="J19" t="n">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K19" t="n">
         <v>0.445</v>
@@ -3787,7 +3854,7 @@
         <v>7.4</v>
       </c>
       <c r="M19" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N19" t="n">
         <v>0.342</v>
@@ -3796,25 +3863,25 @@
         <v>21.5</v>
       </c>
       <c r="P19" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="Q19" t="n">
         <v>0.777</v>
       </c>
       <c r="R19" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S19" t="n">
         <v>32.3</v>
       </c>
       <c r="T19" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U19" t="n">
         <v>23.9</v>
       </c>
       <c r="V19" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W19" t="n">
         <v>8.800000000000001</v>
@@ -3826,7 +3893,7 @@
         <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA19" t="n">
         <v>23.4</v>
@@ -3835,25 +3902,25 @@
         <v>106.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
@@ -3883,7 +3950,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>8</v>
@@ -3913,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="BC19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4041,7 +4108,7 @@
         <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4071,7 +4138,7 @@
         <v>22</v>
       </c>
       <c r="AU20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.727</v>
+        <v>0.724</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,7 +4391,7 @@
         <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K22" t="n">
         <v>0.473</v>
@@ -4336,7 +4403,7 @@
         <v>22.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.368</v>
+        <v>0.365</v>
       </c>
       <c r="O22" t="n">
         <v>20</v>
@@ -4345,25 +4412,25 @@
         <v>24.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.804</v>
+        <v>0.806</v>
       </c>
       <c r="R22" t="n">
         <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T22" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U22" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
         <v>6.1</v>
@@ -4381,10 +4448,10 @@
         <v>106.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4405,7 +4472,7 @@
         <v>15</v>
       </c>
       <c r="AK22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL22" t="n">
         <v>14</v>
@@ -4414,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4441,13 +4508,13 @@
         <v>27</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4617,7 +4684,7 @@
         <v>19</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
         <v>17</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4817,7 +4884,7 @@
         <v>25</v>
       </c>
       <c r="BA24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4948,7 +5015,7 @@
         <v>9</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
         <v>7</v>
@@ -4969,7 +5036,7 @@
         <v>7</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
@@ -4984,13 +5051,13 @@
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
         <v>6</v>
@@ -5133,10 +5200,10 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
         <v>3</v>
@@ -5181,7 +5248,7 @@
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" t="n">
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>0.346</v>
+        <v>0.351</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J27" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
         <v>6.1</v>
@@ -5246,7 +5313,7 @@
         <v>18.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O27" t="n">
         <v>20.7</v>
@@ -5255,7 +5322,7 @@
         <v>27.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R27" t="n">
         <v>12.1</v>
@@ -5270,7 +5337,7 @@
         <v>18.8</v>
       </c>
       <c r="V27" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W27" t="n">
         <v>7.2</v>
@@ -5288,13 +5355,13 @@
         <v>23.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.8</v>
+        <v>-2.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5315,7 +5382,7 @@
         <v>20</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>28</v>
@@ -5339,7 +5406,7 @@
         <v>6</v>
       </c>
       <c r="AS27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT27" t="n">
         <v>10</v>
@@ -5348,13 +5415,13 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW27" t="n">
         <v>22</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>25</v>
@@ -5369,7 +5436,7 @@
         <v>16</v>
       </c>
       <c r="BC27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" t="n">
         <v>60</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.769</v>
+        <v>0.779</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
@@ -5419,40 +5486,40 @@
         <v>83</v>
       </c>
       <c r="K28" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="L28" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.398</v>
+        <v>0.4</v>
       </c>
       <c r="O28" t="n">
         <v>15.8</v>
       </c>
       <c r="P28" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.784</v>
+        <v>0.787</v>
       </c>
       <c r="R28" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="T28" t="n">
         <v>43.2</v>
       </c>
       <c r="U28" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W28" t="n">
         <v>7.4</v>
@@ -5461,22 +5528,22 @@
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA28" t="n">
         <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.4</v>
+        <v>105.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -5518,10 +5585,10 @@
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5733,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="BC29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" t="n">
         <v>24</v>
       </c>
       <c r="F30" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" t="n">
-        <v>0.308</v>
+        <v>0.312</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5792,28 +5859,28 @@
         <v>19.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="O30" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P30" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S30" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T30" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U30" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V30" t="n">
         <v>14.6</v>
@@ -5828,19 +5895,19 @@
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="AA30" t="n">
         <v>20.6</v>
       </c>
-      <c r="AA30" t="n">
-        <v>20.4</v>
-      </c>
       <c r="AB30" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-7.2</v>
+        <v>-7.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5852,7 +5919,7 @@
         <v>26</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
         <v>29</v>
@@ -5867,10 +5934,10 @@
         <v>23</v>
       </c>
       <c r="AM30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>23</v>
@@ -5888,7 +5955,7 @@
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU30" t="n">
         <v>27</v>
@@ -5909,7 +5976,7 @@
         <v>17</v>
       </c>
       <c r="BA30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6037,13 +6104,13 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-8-2013-14</t>
+          <t>2014-04-08</t>
         </is>
       </c>
     </row>
